--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -32,28 +32,28 @@
     <t>Senior Staff</t>
   </si>
   <si>
-    <t>Archivists</t>
-  </si>
-  <si>
-    <t>Curators</t>
-  </si>
-  <si>
-    <t>Data Librarians</t>
-  </si>
-  <si>
-    <t>Policy Specialists</t>
-  </si>
-  <si>
-    <t>Project Managers</t>
-  </si>
-  <si>
-    <t>Researchers</t>
-  </si>
-  <si>
-    <t>Software Engineers</t>
-  </si>
-  <si>
-    <t>Scientists</t>
+    <t>Archivist</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>Data Librarian</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Policy Specialist</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,22 +428,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="26" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -453,7 +453,7 @@
     </row>
     <row r="10" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -29,31 +29,31 @@
     <t>Administrative Staff</t>
   </si>
   <si>
-    <t>Senior Staff</t>
-  </si>
-  <si>
-    <t>Archivist</t>
-  </si>
-  <si>
-    <t>Curator</t>
-  </si>
-  <si>
-    <t>Data Librarian</t>
-  </si>
-  <si>
-    <t>Scientist</t>
-  </si>
-  <si>
-    <t>Policy Specialist</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Researcher</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
+    <t>Archivists</t>
+  </si>
+  <si>
+    <t>Curators</t>
+  </si>
+  <si>
+    <t>Data Librarians</t>
+  </si>
+  <si>
+    <t>Scientists</t>
+  </si>
+  <si>
+    <t>Policy Specialists</t>
+  </si>
+  <si>
+    <t>Project Managers</t>
+  </si>
+  <si>
+    <t>Researchers</t>
+  </si>
+  <si>
+    <t>Senior Staffs</t>
+  </si>
+  <si>
+    <t>Software Engineers</t>
   </si>
 </sst>
 </file>
@@ -413,42 +413,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="26" x14ac:dyDescent="0.35">

--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lars\Documents\GitHub\job-description-and-wages\data\generated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lv39\Documents\Workspace\git\job-description-and-wages\data\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Inclusions" sheetId="3" r:id="rId2"/>
+    <sheet name="Exclusions" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Administrative Staff</t>
   </si>
@@ -54,6 +56,57 @@
   </si>
   <si>
     <t>Software Engineers</t>
+  </si>
+  <si>
+    <t>Data Scientists</t>
+  </si>
+  <si>
+    <t>Nuclear Engineers</t>
+  </si>
+  <si>
+    <t>Astronomers</t>
+  </si>
+  <si>
+    <t>Physicists</t>
+  </si>
+  <si>
+    <t>Architectural Drafters</t>
+  </si>
+  <si>
+    <t>File Clerks</t>
+  </si>
+  <si>
+    <t>First-Line Supervisors of Construction Trades and Extraction Workers</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>17-2161</t>
+  </si>
+  <si>
+    <t>19-2011</t>
+  </si>
+  <si>
+    <t>19-2012</t>
+  </si>
+  <si>
+    <t>17-3011</t>
+  </si>
+  <si>
+    <t>47-1011</t>
+  </si>
+  <si>
+    <t>43-4071</t>
+  </si>
+  <si>
+    <t>Epidemiologist</t>
+  </si>
+  <si>
+    <t>19-1041</t>
   </si>
 </sst>
 </file>
@@ -83,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,13 +159,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -395,69 +462,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Administrative Staff</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>19-1041</t>
+  </si>
+  <si>
+    <t>Librarian</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +531,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -538,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Administrative Staff</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Librarian</t>
+  </si>
+  <si>
+    <t>Alternate Title</t>
+  </si>
+  <si>
+    <t>Scientist</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -544,28 +550,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -26,41 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Administrative Staff</t>
   </si>
   <si>
-    <t>Archivists</t>
-  </si>
-  <si>
-    <t>Curators</t>
-  </si>
-  <si>
     <t>Data Librarians</t>
   </si>
   <si>
-    <t>Scientists</t>
-  </si>
-  <si>
-    <t>Policy Specialists</t>
-  </si>
-  <si>
-    <t>Project Managers</t>
-  </si>
-  <si>
-    <t>Researchers</t>
-  </si>
-  <si>
-    <t>Senior Staffs</t>
-  </si>
-  <si>
-    <t>Software Engineers</t>
-  </si>
-  <si>
-    <t>Data Scientists</t>
-  </si>
-  <si>
     <t>Nuclear Engineers</t>
   </si>
   <si>
@@ -116,13 +89,163 @@
   </si>
   <si>
     <t>Scientist</t>
+  </si>
+  <si>
+    <t>Metadata Librarian</t>
+  </si>
+  <si>
+    <t>Metadata Librarians</t>
+  </si>
+  <si>
+    <t>Records Management Specialist</t>
+  </si>
+  <si>
+    <t>Research Domain Curator</t>
+  </si>
+  <si>
+    <t>Research Domain Project Manager</t>
+  </si>
+  <si>
+    <t>Informatician</t>
+  </si>
+  <si>
+    <t>25-4021</t>
+  </si>
+  <si>
+    <t>Data Wrangler</t>
+  </si>
+  <si>
+    <t>Education Specialist</t>
+  </si>
+  <si>
+    <t>Communication Specialist</t>
+  </si>
+  <si>
+    <t>IT Security Specialist</t>
+  </si>
+  <si>
+    <t>IT Systems Engineer</t>
+  </si>
+  <si>
+    <t>IT Project Manager</t>
+  </si>
+  <si>
+    <t>Facilities Manager</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>An individual who in the course of conducting research generates potentially shareable data</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Data Librarian</t>
+  </si>
+  <si>
+    <t>An individual who is trained in the technical aspects of data management </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>An individual who is trained in the technical aspects of data standards</t>
+  </si>
+  <si>
+    <t>An individual, often an archivist, who is trained in managing data throughout the data life cycle</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>An individual, often an archivist, who is trained in methods to describe and add value to data </t>
+  </si>
+  <si>
+    <t>An individual who is trained in methods to describe and add value to data, and who is also trained in a relevant scientific domain</t>
+  </si>
+  <si>
+    <t>An individual who has the responsibility to plan, execute, and oversee a project, and who is also trained in a relevant scientific domain</t>
+  </si>
+  <si>
+    <t>An individual who is trained in biology, medicine, or other health-related field and who is also trained in methods for collecting, analyzing, and interpreting data in those fields</t>
+  </si>
+  <si>
+    <t>VH</t>
+  </si>
+  <si>
+    <t>An individual who is trained in methods for transforming data from one format  into another for the purpose of improved data interpretation</t>
+  </si>
+  <si>
+    <t>An individual who is trained in the design and implementation of training materials relevant to data management</t>
+  </si>
+  <si>
+    <t>An individual who is trained in effective methods for publicizing and disseminating information to a broad audience</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>An individual who is trained in the design, implementation, testing, and evaluation of computer programs</t>
+  </si>
+  <si>
+    <t>An individual who is trained in methods to protect information technology systems against malicious attacks</t>
+  </si>
+  <si>
+    <t>An individual who is trained in the implementation, monitoring, and maintenance of information technology systems</t>
+  </si>
+  <si>
+    <t>An individual who has the responsibility to plan, execute, and oversee a project, and who is also a trained information technology specialist</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>An individual who has the responsibility to plan, execute, and oversee a project</t>
+  </si>
+  <si>
+    <t>Senior Staff</t>
+  </si>
+  <si>
+    <t>An individual who has a supervisory and decision-making role within an organization or program</t>
+  </si>
+  <si>
+    <t>Policy Specialist</t>
+  </si>
+  <si>
+    <t>An individual who is trained in relevant ethical, legal and regulatory requirements </t>
+  </si>
+  <si>
+    <t>An individual who provides a variety of support functions for a project or program</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>An individual who oversees and handles matters relating to the physical environment</t>
+  </si>
+  <si>
+    <t>Archivist</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Relative Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +258,18 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,13 +318,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,75 +620,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -550,34 +877,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -597,58 +973,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>Administrative Staff</t>
   </si>
@@ -239,13 +239,28 @@
   </si>
   <si>
     <t>Relative Salary</t>
+  </si>
+  <si>
+    <t>Computer and Information Systems Managers</t>
+  </si>
+  <si>
+    <t>11-3021</t>
+  </si>
+  <si>
+    <t>Security Management Specialists</t>
+  </si>
+  <si>
+    <t>IT Security Analyst</t>
+  </si>
+  <si>
+    <t>IT Specialist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +284,12 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -318,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -339,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,10 +901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,6 +978,49 @@
       </c>
       <c r="C7" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>Administrative Staff</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>IT Specialist</t>
+  </si>
+  <si>
+    <t>Computer Systems Analysts</t>
+  </si>
+  <si>
+    <t>15-1121</t>
   </si>
 </sst>
 </file>
@@ -339,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -363,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,6 +1030,25 @@
       </c>
       <c r="C12" s="9" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>Administrative Staff</t>
   </si>
   <si>
-    <t>Data Librarians</t>
-  </si>
-  <si>
     <t>Nuclear Engineers</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Metadata Librarian</t>
   </si>
   <si>
-    <t>Metadata Librarians</t>
-  </si>
-  <si>
     <t>Records Management Specialist</t>
   </si>
   <si>
@@ -260,6 +254,60 @@
   </si>
   <si>
     <t>15-1121</t>
+  </si>
+  <si>
+    <t>39-7012</t>
+  </si>
+  <si>
+    <t>Travel Guides</t>
+  </si>
+  <si>
+    <t>Park Naturalists</t>
+  </si>
+  <si>
+    <t>19-1031</t>
+  </si>
+  <si>
+    <t>Adapted Physical Education Specialists</t>
+  </si>
+  <si>
+    <t>25-2059</t>
+  </si>
+  <si>
+    <t>Tour Guides and Escorts</t>
+  </si>
+  <si>
+    <t>39-7011</t>
+  </si>
+  <si>
+    <t>Speech-Language Pathologists</t>
+  </si>
+  <si>
+    <t>29-1127</t>
+  </si>
+  <si>
+    <t>Switchboard Operators, Including Answering Service</t>
+  </si>
+  <si>
+    <t>43-2011</t>
+  </si>
+  <si>
+    <t>Office and Administrative Support Workers</t>
+  </si>
+  <si>
+    <t>Administrative Assistant</t>
+  </si>
+  <si>
+    <t>First-Line Supervisors of Office and Administrative Support Workers</t>
+  </si>
+  <si>
+    <t>Executive Secretaries and Executive Administrative Assistants</t>
+  </si>
+  <si>
+    <t>Secretaries and Administrative Assistants, Except Legal, Medical, and Executive</t>
+  </si>
+  <si>
+    <t>43-6014.00</t>
   </si>
 </sst>
 </file>
@@ -345,11 +393,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -656,250 +701,250 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="149" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -910,10 +955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,132 +968,205 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>76</v>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1058,68 +1176,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated/job_titles.xlsx
+++ b/data/generated/job_titles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>Administrative Staff</t>
   </si>
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -417,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +949,9 @@
       <c r="A22" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
